--- a/TestData/Excel.xlsx
+++ b/TestData/Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\PycharmProjects\pythonFrameWork\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066248B-04DF-46A5-A2D2-00CCC57EC478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4696CA-00BB-4AAA-ABCD-851D98E83BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,7 +389,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:XFD1048576"/>
+      <selection activeCell="D15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Excel.xlsx
+++ b/TestData/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\PycharmProjects\pythonFrameWork\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4696CA-00BB-4AAA-ABCD-851D98E83BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9053ECF-D4D2-4E7E-8A8A-CB97E8017AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:XFD1048576"/>
+      <selection activeCell="D7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/Excel.xlsx
+++ b/TestData/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\PycharmProjects\pythonFrameWork\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9053ECF-D4D2-4E7E-8A8A-CB97E8017AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C22100-8B1A-4815-9997-093A965F063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Address</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>victoria_victoria@nopCommerce.com</t>
+  </si>
+  <si>
+    <t>productName</t>
+  </si>
+  <si>
+    <t>mobile phone</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,9 +404,10 @@
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -416,8 +423,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -432,6 +442,9 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
